--- a/week_one/gantt/LynxMasters.xlsx
+++ b/week_one/gantt/LynxMasters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="51">
   <si>
     <t/>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Start Wiki and Docs</t>
   </si>
   <si>
     <t>Use Cases</t>
@@ -270,7 +273,7 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -373,22 +376,18 @@
       <c r="A7" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="5">
-        <v>12</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" t="n" s="11">
         <v>43192.0</v>
       </c>
       <c r="D7" t="n" s="11">
-        <v>43199.0</v>
-      </c>
-      <c r="E7" t="s" s="5">
-        <v>16</v>
-      </c>
+        <v>43198.0</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" hidden="false">
       <c r="A8" t="s" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s" s="5">
         <v>12</v>
@@ -400,58 +399,58 @@
         <v>43199.0</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" hidden="false">
       <c r="A9" t="s" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n" s="11">
-        <v>43196.0</v>
+        <v>43192.0</v>
       </c>
       <c r="D9" t="n" s="11">
-        <v>43196.0</v>
+        <v>43199.0</v>
       </c>
       <c r="E9" t="s" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="10" hidden="false">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n" s="11">
+        <v>43196.0</v>
+      </c>
+      <c r="D10" t="n" s="11">
+        <v>43196.0</v>
+      </c>
+      <c r="E10" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
     </row>
     <row r="11" hidden="false">
-      <c r="A11" t="s" s="9">
+      <c r="A11" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n" s="11">
-        <v>43199.0</v>
-      </c>
-      <c r="D11" t="n" s="11">
-        <v>43203.0</v>
-      </c>
-      <c r="E11" t="s" s="5">
-        <v>23</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" hidden="false">
       <c r="A12" t="s" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>43199.0</v>
@@ -460,15 +459,15 @@
         <v>43203.0</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" hidden="false">
       <c r="A13" t="s" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n" s="11">
         <v>43199.0</v>
@@ -477,342 +476,359 @@
         <v>43203.0</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" hidden="false">
       <c r="A14" t="s" s="9">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n" s="11">
-        <v>43203.0</v>
+        <v>43199.0</v>
       </c>
       <c r="D14" t="n" s="11">
         <v>43203.0</v>
       </c>
       <c r="E14" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" hidden="false">
+      <c r="A15" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n" s="11">
+        <v>43203.0</v>
+      </c>
+      <c r="D15" t="n" s="11">
+        <v>43203.0</v>
+      </c>
+      <c r="E15" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="15" hidden="false">
-      <c r="A15" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-    </row>
     <row r="16" hidden="false">
-      <c r="A16" t="s" s="9">
+      <c r="A16" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="B16" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n" s="11">
-        <v>43206.0</v>
-      </c>
-      <c r="D16" t="n" s="11">
-        <v>43210.0</v>
-      </c>
-      <c r="E16" t="s" s="5">
-        <v>13</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" hidden="false">
       <c r="A17" t="s" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n" s="11">
-        <v>43210.0</v>
+        <v>43206.0</v>
       </c>
       <c r="D17" t="n" s="11">
         <v>43210.0</v>
       </c>
       <c r="E17" t="s" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" hidden="false">
+      <c r="A18" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n" s="11">
+        <v>43210.0</v>
+      </c>
+      <c r="D18" t="n" s="11">
+        <v>43210.0</v>
+      </c>
+      <c r="E18" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="18" hidden="false">
-      <c r="A18" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-    </row>
     <row r="19" hidden="false">
-      <c r="A19" t="s" s="9">
+      <c r="A19" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B19" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n" s="11">
-        <v>43211.0</v>
-      </c>
-      <c r="D19" t="n" s="11">
-        <v>43216.0</v>
-      </c>
-      <c r="E19" t="s" s="5">
-        <v>32</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" hidden="false">
       <c r="A20" t="s" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n" s="11">
-        <v>43212.0</v>
+        <v>43211.0</v>
       </c>
       <c r="D20" t="n" s="11">
         <v>43216.0</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" hidden="false">
       <c r="A21" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n" s="11">
+        <v>43212.0</v>
+      </c>
+      <c r="D21" t="n" s="11">
+        <v>43216.0</v>
+      </c>
+      <c r="E21" t="s" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" hidden="false">
+      <c r="A22" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="B21" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n" s="11">
+      <c r="B22" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n" s="11">
         <v>43210.0</v>
       </c>
-      <c r="D21" t="n" s="11">
+      <c r="D22" t="n" s="11">
         <v>43210.0</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E22" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="22" hidden="false">
-      <c r="A22" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-    </row>
     <row r="23" hidden="false">
-      <c r="A23" t="s" s="9">
+      <c r="A23" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="B23" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n" s="11">
-        <v>43211.0</v>
-      </c>
-      <c r="D23" t="n" s="11">
-        <v>43217.0</v>
-      </c>
-      <c r="E23" t="s" s="5">
-        <v>37</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" hidden="false">
       <c r="A24" t="s" s="9">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n" s="11">
-        <v>43217.0</v>
+        <v>43211.0</v>
       </c>
       <c r="D24" t="n" s="11">
         <v>43217.0</v>
       </c>
       <c r="E24" t="s" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" hidden="false">
+      <c r="A25" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n" s="11">
+        <v>43217.0</v>
+      </c>
+      <c r="D25" t="n" s="11">
+        <v>43217.0</v>
+      </c>
+      <c r="E25" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="25" hidden="false">
-      <c r="A25" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
-    </row>
     <row r="26" hidden="false">
-      <c r="A26" t="s" s="9">
+      <c r="A26" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="B26" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="C26" t="n" s="11">
-        <v>43218.0</v>
-      </c>
-      <c r="D26" t="n" s="11">
-        <v>43224.0</v>
-      </c>
-      <c r="E26" t="s" s="5">
-        <v>40</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" hidden="false">
       <c r="A27" t="s" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n" s="11">
-        <v>43224.0</v>
+        <v>43218.0</v>
       </c>
       <c r="D27" t="n" s="11">
         <v>43224.0</v>
       </c>
       <c r="E27" t="s" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" hidden="false">
+      <c r="A28" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n" s="11">
+        <v>43224.0</v>
+      </c>
+      <c r="D28" t="n" s="11">
+        <v>43224.0</v>
+      </c>
+      <c r="E28" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="28" hidden="false">
-      <c r="A28" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-    </row>
     <row r="29" hidden="false">
-      <c r="A29" t="s" s="9">
+      <c r="A29" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="B29" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="C29" t="n" s="11">
-        <v>43227.0</v>
-      </c>
-      <c r="D29" t="n" s="11">
-        <v>43231.0</v>
-      </c>
-      <c r="E29" t="s" s="5">
-        <v>43</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" hidden="false">
       <c r="A30" t="s" s="9">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n" s="11">
-        <v>43231.0</v>
+        <v>43227.0</v>
       </c>
       <c r="D30" t="n" s="11">
         <v>43231.0</v>
       </c>
       <c r="E30" t="s" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" hidden="false">
+      <c r="A31" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n" s="11">
+        <v>43231.0</v>
+      </c>
+      <c r="D31" t="n" s="11">
+        <v>43231.0</v>
+      </c>
+      <c r="E31" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="31" hidden="false">
-      <c r="A31" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
-    </row>
     <row r="32" hidden="false">
-      <c r="A32" t="s" s="9">
+      <c r="A32" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="B32" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="C32" t="n" s="11">
-        <v>43232.0</v>
-      </c>
-      <c r="D32" t="n" s="11">
-        <v>43238.0</v>
-      </c>
-      <c r="E32" t="s" s="5">
-        <v>46</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" hidden="false">
       <c r="A33" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n" s="11">
-        <v>43234.0</v>
+        <v>43232.0</v>
       </c>
       <c r="D33" t="n" s="11">
         <v>43238.0</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" hidden="false">
       <c r="A34" t="s" s="9">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n" s="11">
-        <v>43238.0</v>
+        <v>43234.0</v>
       </c>
       <c r="D34" t="n" s="11">
         <v>43238.0</v>
       </c>
       <c r="E34" t="s" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" hidden="false">
+      <c r="A35" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n" s="11">
+        <v>43238.0</v>
+      </c>
+      <c r="D35" t="n" s="11">
+        <v>43238.0</v>
+      </c>
+      <c r="E35" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="35" hidden="false">
-      <c r="A35" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
-    </row>
     <row r="36" hidden="false">
-      <c r="A36" t="s" s="9">
+      <c r="A36" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="B36" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C36" t="n" s="11">
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" hidden="false">
+      <c r="A37" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n" s="11">
         <v>43241.0</v>
       </c>
-      <c r="D36" t="n" s="11">
+      <c r="D37" t="n" s="11">
         <v>43241.0</v>
       </c>
-      <c r="E36" t="s" s="5">
-        <v>43</v>
+      <c r="E37" t="s" s="5">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
